--- a/data/Satellite_HS_Trout_20C_Table.xlsx
+++ b/data/Satellite_HS_Trout_20C_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ACTIVE\Coastal Classification System\Data\CMAR Temperature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielle Dempsey\Desktop\RProjects\coastal_classification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{894A1F2A-EFE4-47F2-AC8C-9AD289C5F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA86951-C130-4BF4-BD7C-E7575C143AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF08721-EECC-47B2-830D-C110EB8CF113}"/>
+    <workbookView xWindow="22410" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{2AF08721-EECC-47B2-830D-C110EB8CF113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>county</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Cumberland</t>
+  </si>
+  <si>
+    <t>sat_1</t>
+  </si>
+  <si>
+    <t>sat_2</t>
+  </si>
+  <si>
+    <t>sat_3</t>
+  </si>
+  <si>
+    <t>sat_4</t>
+  </si>
+  <si>
+    <t>sat_5</t>
+  </si>
+  <si>
+    <t>sat_6</t>
+  </si>
+  <si>
+    <t>sat_7</t>
   </si>
 </sst>
 </file>
@@ -483,18 +504,18 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,12 +544,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -552,12 +573,12 @@
         <v>-60.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -581,12 +602,12 @@
         <v>-61.15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>24</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -610,12 +631,12 @@
         <v>-60.8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -639,12 +660,12 @@
         <v>-60.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -668,12 +689,12 @@
         <v>-64</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -697,12 +718,12 @@
         <v>-64.7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0.5</v>
